--- a/data/trans_camb/P12A-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,61</t>
+          <t>-5,36; 4,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 4,91</t>
+          <t>-5,53; 3,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,8</t>
+          <t>-4,86; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 6,09</t>
+          <t>3,55; 12,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,68</t>
+          <t>-4,2; 5,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,06</t>
+          <t>-2,25; 5,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 3,84</t>
+          <t>-3,38; 3,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,01</t>
+          <t>-0,58; 8,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,32</t>
+          <t>-1,2; 7,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 5,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 3,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 2,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 8,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 4,31</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 30,43</t>
+          <t>-30,95; 33,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 40,5</t>
+          <t>-32,38; 29,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 107,15</t>
+          <t>-27,79; 42,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 52,42</t>
+          <t>19,53; 101,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 32,91</t>
+          <t>-16,56; 26,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 86,95</t>
+          <t>-14,39; 45,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 30,36</t>
+          <t>-21,61; 31,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 25,73</t>
+          <t>-3,65; 70,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,68; 84,12</t>
+          <t>-4,57; 54,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; 32,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,97; 29,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 20,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 43,33</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 60,98</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 22,5</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-4,73</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,21</t>
+          <t>-3,49; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 7,09</t>
+          <t>-2,46; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 13,07</t>
+          <t>-3,62; 5,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 1,01</t>
+          <t>-0,75; 11,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 4,0</t>
+          <t>-7,43; 7,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 10,23</t>
+          <t>-9,29; 0,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,51</t>
+          <t>-5,79; 4,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,96</t>
+          <t>-3,24; 7,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,15</t>
+          <t>-10,72; 1,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,36; 3,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 1,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 3,91</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 5,01</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 4,7</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 3,73</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>-21,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>-4,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>-22,82%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-19,63%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-10,92%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-8,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 50,0</t>
+          <t>-23,72; 40,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 67,21</t>
+          <t>-16,66; 61,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 118,82</t>
+          <t>-24,47; 52,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 6,13</t>
+          <t>-6,67; 93,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 27,52</t>
+          <t>-32,75; 53,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 67,54</t>
+          <t>-42,99; 4,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 11,16</t>
+          <t>-27,89; 26,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 30,24</t>
+          <t>-15,61; 50,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 68,29</t>
+          <t>-46,25; 7,57</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-47,47; 24,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-30,39; 8,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-16,12; 27,8</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 35,28</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 30,17</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-31,66; 21,76</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>16,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>10,31</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,55</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,96</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 21,17</t>
+          <t>2,38; 23,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 26,52</t>
+          <t>6,45; 28,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-0,95; 28,08</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 9,29</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 10,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-7,52; 9,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,05; 9,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; 9,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 12,76</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 15,81</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 12,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 17,26</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 15,49</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>105,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>137,18%</t>
+          <t>152,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>98,03%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,11%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>42,48%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>67,24%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>70,26%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 302,28</t>
+          <t>5,89; 354,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,37; 414,8</t>
+          <t>33,78; 457,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-12,53; 385,08</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-39,43; 95,99</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 98,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-38,85; 83,9</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-37,34; 87,16</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-48,52; 85,31</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-8,04; 129,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 164,49</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 123,5</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11,12; 184,0</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,08; 153,9</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,25</t>
+          <t>-1,98; 4,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,68</t>
+          <t>-1,0; 5,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,06</t>
+          <t>-1,78; 5,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,77</t>
+          <t>2,67; 10,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,9</t>
+          <t>-3,27; 4,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,84</t>
+          <t>-3,73; 2,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,5</t>
+          <t>-3,23; 2,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,27</t>
+          <t>-0,56; 6,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,94</t>
+          <t>-2,0; 5,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 3,77</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,46</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 3,09</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 4,68</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 6,55</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,92</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 35,78</t>
+          <t>-13,72; 37,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 47,38</t>
+          <t>-7,38; 45,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,09; 100,3</t>
+          <t>-12,51; 45,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 19,89</t>
+          <t>14,59; 79,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 21,66</t>
+          <t>-13,85; 24,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,35; 56,2</t>
+          <t>-21,75; 14,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 18,49</t>
+          <t>-18,39; 20,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 24,63</t>
+          <t>-3,25; 42,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,19; 68,09</t>
+          <t>-9,73; 32,93</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-15,42; 21,56</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 18,33</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 22,29</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 34,81</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 42,14</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 15,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
